--- a/frontend/web/labels/1/eparcel.xlsx
+++ b/frontend/web/labels/1/eparcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>weight</t>
   </si>
@@ -97,45 +97,6 @@
   </si>
   <si>
     <t>ebay_transaction_id</t>
-  </si>
-  <si>
-    <t>dee Johns</t>
-  </si>
-  <si>
-    <t>0439032131</t>
-  </si>
-  <si>
-    <t>43 Morang Road, Hawthorn</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>121842358460-1587550940002</t>
-  </si>
-  <si>
-    <t>oscarfella</t>
-  </si>
-  <si>
-    <t>john doughty</t>
-  </si>
-  <si>
-    <t>03 54632093</t>
-  </si>
-  <si>
-    <t>9  Lansdowne St</t>
-  </si>
-  <si>
-    <t>Talbot</t>
-  </si>
-  <si>
-    <t>121842358460-1587689335002</t>
-  </si>
-  <si>
-    <t>doughjtd.lmncvoaxf</t>
   </si>
   <si>
     <t>field name</t>
@@ -579,7 +540,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1695,66 +1656,6 @@
       </c>
       <c r="AA1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1025">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2"/>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2">
-        <v>3122</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1025">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3"/>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3">
-        <v>3371</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2815,13 +2716,13 @@
   <sheetData>
     <row r="1" spans="1:1025">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2832,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1025">
@@ -2843,13 +2744,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1025">
@@ -2857,13 +2758,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1025">
@@ -2871,13 +2772,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1025">
@@ -2885,13 +2786,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1025">
@@ -2899,13 +2800,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
@@ -2913,13 +2814,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1025">
@@ -2927,13 +2828,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
@@ -2941,13 +2842,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1025">
@@ -2955,10 +2856,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1025">
@@ -2966,13 +2867,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1025">
@@ -2980,13 +2881,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1025">
@@ -2994,10 +2895,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1025">
@@ -3005,10 +2906,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:1025">
@@ -3016,10 +2917,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:1025">
@@ -3027,13 +2928,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:1025">
@@ -3041,13 +2942,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1025">
@@ -3055,13 +2956,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1025">
@@ -3069,13 +2970,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1025">
@@ -3083,13 +2984,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1025">
@@ -3097,13 +2998,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1025">
@@ -3111,13 +3012,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:1025">
@@ -3125,13 +3026,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1025">
@@ -3139,10 +3040,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1025">
@@ -3150,13 +3051,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1025">
@@ -3164,13 +3065,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1025">
@@ -3178,13 +3079,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/web/labels/1/eparcel.xlsx
+++ b/frontend/web/labels/1/eparcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>weight</t>
   </si>
@@ -97,6 +97,48 @@
   </si>
   <si>
     <t>ebay_transaction_id</t>
+  </si>
+  <si>
+    <t>Janelle Cutuli</t>
+  </si>
+  <si>
+    <t>0428 632434</t>
+  </si>
+  <si>
+    <t>8 Harbour Road</t>
+  </si>
+  <si>
+    <t>Mourilyan</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>121842365891-1633623876002</t>
+  </si>
+  <si>
+    <t>janelle3314</t>
+  </si>
+  <si>
+    <t>Terry callan</t>
+  </si>
+  <si>
+    <t>0401 732665</t>
+  </si>
+  <si>
+    <t>41 Burelli st</t>
+  </si>
+  <si>
+    <t>Wollongong</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>121842358460-1633763379002</t>
+  </si>
+  <si>
+    <t>tcal7890</t>
   </si>
   <si>
     <t>field name</t>
@@ -540,7 +582,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK1"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1656,6 +1698,66 @@
       </c>
       <c r="AA1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1025">
+      <c r="A2">
+        <v>0.2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2"/>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>4858</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1025">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3"/>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>2500</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2716,13 +2818,13 @@
   <sheetData>
     <row r="1" spans="1:1025">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2733,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1025">
@@ -2744,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1025">
@@ -2758,13 +2860,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1025">
@@ -2772,13 +2874,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1025">
@@ -2786,13 +2888,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1025">
@@ -2800,13 +2902,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
@@ -2814,13 +2916,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1025">
@@ -2828,13 +2930,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
@@ -2842,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1025">
@@ -2856,10 +2958,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:1025">
@@ -2867,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:1025">
@@ -2881,13 +2983,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:1025">
@@ -2895,10 +2997,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:1025">
@@ -2906,10 +3008,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:1025">
@@ -2917,10 +3019,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1025">
@@ -2928,13 +3030,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1025">
@@ -2942,13 +3044,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1025">
@@ -2956,13 +3058,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1025">
@@ -2970,13 +3072,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1025">
@@ -2984,13 +3086,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:1025">
@@ -2998,13 +3100,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1025">
@@ -3012,13 +3114,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:1025">
@@ -3026,13 +3128,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1025">
@@ -3040,10 +3142,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:1025">
@@ -3051,13 +3153,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:1025">
@@ -3065,13 +3167,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:1025">
@@ -3079,13 +3181,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/web/labels/1/eparcel.xlsx
+++ b/frontend/web/labels/1/eparcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>weight</t>
   </si>
@@ -99,46 +99,25 @@
     <t>ebay_transaction_id</t>
   </si>
   <si>
-    <t>Janelle Cutuli</t>
-  </si>
-  <si>
-    <t>0428 632434</t>
-  </si>
-  <si>
-    <t>8 Harbour Road</t>
-  </si>
-  <si>
-    <t>Mourilyan</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>121842365891-1633623876002</t>
-  </si>
-  <si>
-    <t>janelle3314</t>
-  </si>
-  <si>
-    <t>Terry callan</t>
-  </si>
-  <si>
-    <t>0401 732665</t>
-  </si>
-  <si>
-    <t>41 Burelli st</t>
-  </si>
-  <si>
-    <t>Wollongong</t>
+    <t>Sally Robinson</t>
+  </si>
+  <si>
+    <t>0402 762549</t>
+  </si>
+  <si>
+    <t>20 Mountain Gum Rd</t>
+  </si>
+  <si>
+    <t>CALALA</t>
   </si>
   <si>
     <t>New South Wales</t>
   </si>
   <si>
-    <t>121842358460-1633763379002</t>
-  </si>
-  <si>
-    <t>tcal7890</t>
+    <t>121842365891-1637713725002</t>
+  </si>
+  <si>
+    <t>salee249</t>
   </si>
   <si>
     <t>field name</t>
@@ -582,7 +561,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1702,7 +1681,7 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -1721,43 +1700,13 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>4858</v>
+        <v>2340</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1025">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3"/>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3">
-        <v>2500</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2818,13 +2767,13 @@
   <sheetData>
     <row r="1" spans="1:1025">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2835,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1025">
@@ -2846,13 +2795,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1025">
@@ -2860,13 +2809,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1025">
@@ -2874,13 +2823,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1025">
@@ -2888,13 +2837,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1025">
@@ -2902,13 +2851,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
@@ -2916,13 +2865,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1025">
@@ -2930,13 +2879,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
@@ -2944,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1025">
@@ -2958,10 +2907,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1025">
@@ -2969,13 +2918,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1025">
@@ -2983,13 +2932,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1025">
@@ -2997,10 +2946,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1025">
@@ -3008,10 +2957,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1025">
@@ -3019,10 +2968,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1025">
@@ -3030,13 +2979,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1025">
@@ -3044,13 +2993,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1025">
@@ -3058,13 +3007,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1025">
@@ -3072,13 +3021,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1025">
@@ -3086,13 +3035,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1025">
@@ -3100,13 +3049,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1025">
@@ -3114,13 +3063,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:1025">
@@ -3128,13 +3077,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1025">
@@ -3142,10 +3091,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1025">
@@ -3153,13 +3102,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1025">
@@ -3167,13 +3116,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:1025">
@@ -3181,13 +3130,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/web/labels/1/eparcel.xlsx
+++ b/frontend/web/labels/1/eparcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>weight</t>
   </si>
@@ -99,25 +99,85 @@
     <t>ebay_transaction_id</t>
   </si>
   <si>
-    <t>Sally Robinson</t>
-  </si>
-  <si>
-    <t>0402 762549</t>
-  </si>
-  <si>
-    <t>20 Mountain Gum Rd</t>
-  </si>
-  <si>
-    <t>CALALA</t>
+    <t>COLIN MONTAGUE</t>
+  </si>
+  <si>
+    <t>0242 578418</t>
+  </si>
+  <si>
+    <t>1B Ribbonwood Place</t>
+  </si>
+  <si>
+    <t>ALBION PARK RAIL</t>
   </si>
   <si>
     <t>New South Wales</t>
   </si>
   <si>
-    <t>121842365891-1637713725002</t>
-  </si>
-  <si>
-    <t>salee249</t>
+    <t>121842358460-1639674302002</t>
+  </si>
+  <si>
+    <t>cfm153</t>
+  </si>
+  <si>
+    <t>Laura Gannaway</t>
+  </si>
+  <si>
+    <t>08 99216832</t>
+  </si>
+  <si>
+    <t>1 Dayana Drive</t>
+  </si>
+  <si>
+    <t>Geraldton</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>121842365891-1640040448002</t>
+  </si>
+  <si>
+    <t>lauden14</t>
+  </si>
+  <si>
+    <t>Nikolas Taufatofua</t>
+  </si>
+  <si>
+    <t>04 24543354</t>
+  </si>
+  <si>
+    <t>66 Harts road</t>
+  </si>
+  <si>
+    <t>Indooroopilly</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>121842365891-1640084522002</t>
+  </si>
+  <si>
+    <t>raoul3t</t>
+  </si>
+  <si>
+    <t>Alison Wood</t>
+  </si>
+  <si>
+    <t>0249 346748</t>
+  </si>
+  <si>
+    <t>91 Ferraby Dr</t>
+  </si>
+  <si>
+    <t>Metford</t>
+  </si>
+  <si>
+    <t>121921850608-1640163399002</t>
+  </si>
+  <si>
+    <t>madgecod</t>
   </si>
   <si>
     <t>field name</t>
@@ -561,7 +621,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1681,7 +1741,7 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -1700,13 +1760,103 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>2340</v>
+        <v>2527</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1025">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3"/>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>6530</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1025">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4"/>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>4068</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1025">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5"/>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>2323</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2767,13 +2917,13 @@
   <sheetData>
     <row r="1" spans="1:1025">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2784,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1025">
@@ -2795,13 +2945,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1025">
@@ -2809,13 +2959,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1025">
@@ -2823,13 +2973,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1025">
@@ -2837,13 +2987,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1025">
@@ -2851,13 +3001,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
@@ -2865,13 +3015,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1025">
@@ -2879,13 +3029,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
@@ -2893,13 +3043,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:1025">
@@ -2907,10 +3057,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1025">
@@ -2918,13 +3068,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:1025">
@@ -2932,13 +3082,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:1025">
@@ -2946,10 +3096,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1025">
@@ -2957,10 +3107,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1025">
@@ -2968,10 +3118,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1025">
@@ -2979,13 +3129,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1025">
@@ -2993,13 +3143,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1025">
@@ -3007,13 +3157,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1025">
@@ -3021,13 +3171,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1025">
@@ -3035,13 +3185,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:1025">
@@ -3049,13 +3199,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1025">
@@ -3063,13 +3213,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:1025">
@@ -3077,13 +3227,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1025">
@@ -3091,10 +3241,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:1025">
@@ -3102,13 +3252,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:1025">
@@ -3116,13 +3266,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:1025">
@@ -3130,13 +3280,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/web/labels/1/eparcel.xlsx
+++ b/frontend/web/labels/1/eparcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>weight</t>
   </si>
@@ -99,85 +99,121 @@
     <t>ebay_transaction_id</t>
   </si>
   <si>
-    <t>COLIN MONTAGUE</t>
-  </si>
-  <si>
-    <t>0242 578418</t>
-  </si>
-  <si>
-    <t>1B Ribbonwood Place</t>
-  </si>
-  <si>
-    <t>ALBION PARK RAIL</t>
+    <t>Cristine McIvor</t>
+  </si>
+  <si>
+    <t>03 53356641</t>
+  </si>
+  <si>
+    <t>c/- Ceramet Pty Ltd</t>
+  </si>
+  <si>
+    <t>8 WILTSHIRE LANE</t>
+  </si>
+  <si>
+    <t>DELACOMBE</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>gizzy.m</t>
+  </si>
+  <si>
+    <t>John Bateman</t>
+  </si>
+  <si>
+    <t>0 405587968</t>
+  </si>
+  <si>
+    <t>22 saltash st</t>
+  </si>
+  <si>
+    <t>yagoona</t>
   </si>
   <si>
     <t>New South Wales</t>
   </si>
   <si>
-    <t>121842358460-1639674302002</t>
-  </si>
-  <si>
-    <t>cfm153</t>
-  </si>
-  <si>
-    <t>Laura Gannaway</t>
-  </si>
-  <si>
-    <t>08 99216832</t>
-  </si>
-  <si>
-    <t>1 Dayana Drive</t>
-  </si>
-  <si>
-    <t>Geraldton</t>
+    <t>david doonan</t>
+  </si>
+  <si>
+    <t>0499772102</t>
+  </si>
+  <si>
+    <t>10 stockade close</t>
+  </si>
+  <si>
+    <t>south bowenfels</t>
+  </si>
+  <si>
+    <t>lithgow</t>
+  </si>
+  <si>
+    <t>2005davidford</t>
+  </si>
+  <si>
+    <t>Louise H</t>
+  </si>
+  <si>
+    <t>0438 932138</t>
+  </si>
+  <si>
+    <t>12 young st</t>
+  </si>
+  <si>
+    <t>pakenham</t>
+  </si>
+  <si>
+    <t>melbourne</t>
+  </si>
+  <si>
+    <t>Rebecca Herriot</t>
+  </si>
+  <si>
+    <t>61 405021856</t>
+  </si>
+  <si>
+    <t>Unit 1003/22-40 Sir John Young Crescent</t>
+  </si>
+  <si>
+    <t>Woolloomooloo</t>
+  </si>
+  <si>
+    <t>herrirebec</t>
+  </si>
+  <si>
+    <t>Geoffrey Cross</t>
+  </si>
+  <si>
+    <t>02 67233538</t>
+  </si>
+  <si>
+    <t>212 Old Mill Rd</t>
+  </si>
+  <si>
+    <t>Old Mill</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>g.d.cross</t>
+  </si>
+  <si>
+    <t>Mijin Jo</t>
+  </si>
+  <si>
+    <t>61 0401051000</t>
+  </si>
+  <si>
+    <t>3 Kiln st</t>
+  </si>
+  <si>
+    <t>Malaga</t>
   </si>
   <si>
     <t>Western Australia</t>
-  </si>
-  <si>
-    <t>121842365891-1640040448002</t>
-  </si>
-  <si>
-    <t>lauden14</t>
-  </si>
-  <si>
-    <t>Nikolas Taufatofua</t>
-  </si>
-  <si>
-    <t>04 24543354</t>
-  </si>
-  <si>
-    <t>66 Harts road</t>
-  </si>
-  <si>
-    <t>Indooroopilly</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>121842365891-1640084522002</t>
-  </si>
-  <si>
-    <t>raoul3t</t>
-  </si>
-  <si>
-    <t>Alison Wood</t>
-  </si>
-  <si>
-    <t>0249 346748</t>
-  </si>
-  <si>
-    <t>91 Ferraby Dr</t>
-  </si>
-  <si>
-    <t>Metford</t>
-  </si>
-  <si>
-    <t>121921850608-1640163399002</t>
-  </si>
-  <si>
-    <t>madgecod</t>
   </si>
   <si>
     <t>field name</t>
@@ -621,7 +657,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1741,7 +1777,7 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -1752,18 +1788,20 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2">
-        <v>2527</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
+        <v>3356</v>
+      </c>
+      <c r="L2">
+        <v>294</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
@@ -1771,7 +1809,7 @@
     </row>
     <row r="3" spans="1:1025">
       <c r="A3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -1790,73 +1828,167 @@
         <v>38</v>
       </c>
       <c r="K3">
-        <v>6530</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
+        <v>2199</v>
+      </c>
+      <c r="L3">
+        <v>296</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1025">
       <c r="A4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="G4"/>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>2790</v>
+      </c>
+      <c r="L4">
+        <v>297</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4">
-        <v>4068</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1025">
       <c r="A5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>3810</v>
+      </c>
+      <c r="L5">
+        <v>295</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1025">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="G5"/>
-      <c r="I5" t="s">
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>2323</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
+      <c r="G6"/>
+      <c r="I6" t="s">
         <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>2011</v>
+      </c>
+      <c r="L6">
+        <v>298</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1025">
+      <c r="A7">
+        <v>0.7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7"/>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
+        <v>2369</v>
+      </c>
+      <c r="L7">
+        <v>292</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1025">
+      <c r="A8">
+        <v>0.2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8"/>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <v>6090</v>
+      </c>
+      <c r="L8">
+        <v>293</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2917,13 +3049,13 @@
   <sheetData>
     <row r="1" spans="1:1025">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2934,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1025">
@@ -2945,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1025">
@@ -2959,13 +3091,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1025">
@@ -2973,13 +3105,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1025">
@@ -2987,13 +3119,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1025">
@@ -3001,13 +3133,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
@@ -3015,13 +3147,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1025">
@@ -3029,13 +3161,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
@@ -3043,13 +3175,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1025">
@@ -3057,10 +3189,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1025">
@@ -3068,13 +3200,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1025">
@@ -3082,13 +3214,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:1025">
@@ -3096,10 +3228,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1025">
@@ -3107,10 +3239,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:1025">
@@ -3118,10 +3250,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1025">
@@ -3129,13 +3261,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1025">
@@ -3143,13 +3275,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1025">
@@ -3157,13 +3289,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1025">
@@ -3171,13 +3303,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1025">
@@ -3185,13 +3317,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1025">
@@ -3199,13 +3331,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C22">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1025">
@@ -3213,13 +3345,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1025">
@@ -3227,13 +3359,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1025">
@@ -3241,10 +3373,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1025">
@@ -3252,13 +3384,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1025">
@@ -3266,13 +3398,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:1025">
@@ -3280,13 +3412,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/web/labels/1/eparcel.xlsx
+++ b/frontend/web/labels/1/eparcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>weight</t>
   </si>
@@ -99,121 +99,40 @@
     <t>ebay_transaction_id</t>
   </si>
   <si>
-    <t>Cristine McIvor</t>
-  </si>
-  <si>
-    <t>03 53356641</t>
-  </si>
-  <si>
-    <t>c/- Ceramet Pty Ltd</t>
-  </si>
-  <si>
-    <t>8 WILTSHIRE LANE</t>
-  </si>
-  <si>
-    <t>DELACOMBE</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>gizzy.m</t>
-  </si>
-  <si>
-    <t>John Bateman</t>
-  </si>
-  <si>
-    <t>0 405587968</t>
-  </si>
-  <si>
-    <t>22 saltash st</t>
-  </si>
-  <si>
-    <t>yagoona</t>
+    <t>Natasha Soulsby</t>
+  </si>
+  <si>
+    <t>02 96756925</t>
+  </si>
+  <si>
+    <t>6 Willow Grove</t>
+  </si>
+  <si>
+    <t>Plumpton</t>
   </si>
   <si>
     <t>New South Wales</t>
   </si>
   <si>
-    <t>david doonan</t>
-  </si>
-  <si>
-    <t>0499772102</t>
-  </si>
-  <si>
-    <t>10 stockade close</t>
-  </si>
-  <si>
-    <t>south bowenfels</t>
-  </si>
-  <si>
-    <t>lithgow</t>
-  </si>
-  <si>
-    <t>2005davidford</t>
-  </si>
-  <si>
-    <t>Louise H</t>
-  </si>
-  <si>
-    <t>0438 932138</t>
-  </si>
-  <si>
-    <t>12 young st</t>
-  </si>
-  <si>
-    <t>pakenham</t>
-  </si>
-  <si>
-    <t>melbourne</t>
-  </si>
-  <si>
-    <t>Rebecca Herriot</t>
-  </si>
-  <si>
-    <t>61 405021856</t>
-  </si>
-  <si>
-    <t>Unit 1003/22-40 Sir John Young Crescent</t>
-  </si>
-  <si>
-    <t>Woolloomooloo</t>
-  </si>
-  <si>
-    <t>herrirebec</t>
-  </si>
-  <si>
-    <t>Geoffrey Cross</t>
-  </si>
-  <si>
-    <t>02 67233538</t>
-  </si>
-  <si>
-    <t>212 Old Mill Rd</t>
-  </si>
-  <si>
-    <t>Old Mill</t>
-  </si>
-  <si>
-    <t>NSW</t>
-  </si>
-  <si>
-    <t>g.d.cross</t>
-  </si>
-  <si>
-    <t>Mijin Jo</t>
-  </si>
-  <si>
-    <t>61 0401051000</t>
-  </si>
-  <si>
-    <t>3 Kiln st</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Western Australia</t>
+    <t>natasha2912</t>
+  </si>
+  <si>
+    <t>Geoffrey Bellet</t>
+  </si>
+  <si>
+    <t>07 41287840</t>
+  </si>
+  <si>
+    <t>9 Meadow Drive</t>
+  </si>
+  <si>
+    <t>Dundowran Beach</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>geffro_1</t>
   </si>
   <si>
     <t>field name</t>
@@ -657,7 +576,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK8"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1777,7 +1696,7 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -1788,23 +1707,21 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2"/>
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2">
+        <v>2761</v>
+      </c>
+      <c r="L2">
+        <v>367</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
-      </c>
-      <c r="K2">
-        <v>3356</v>
-      </c>
-      <c r="L2">
-        <v>294</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1025">
@@ -1812,183 +1729,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
       </c>
       <c r="G3"/>
       <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3">
+        <v>4655</v>
+      </c>
+      <c r="L3">
+        <v>368</v>
+      </c>
+      <c r="N3" t="s">
         <v>38</v>
-      </c>
-      <c r="K3">
-        <v>2199</v>
-      </c>
-      <c r="L3">
-        <v>296</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1025">
-      <c r="A4">
-        <v>0.5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>2790</v>
-      </c>
-      <c r="L4">
-        <v>297</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1025">
-      <c r="A5">
-        <v>0.5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5">
-        <v>3810</v>
-      </c>
-      <c r="L5">
-        <v>295</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1025">
-      <c r="A6">
-        <v>0.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6"/>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6">
-        <v>2011</v>
-      </c>
-      <c r="L6">
-        <v>298</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1025">
-      <c r="A7">
-        <v>0.7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7"/>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7">
-        <v>2369</v>
-      </c>
-      <c r="L7">
-        <v>292</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1025">
-      <c r="A8">
-        <v>0.2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8"/>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8">
-        <v>6090</v>
-      </c>
-      <c r="L8">
-        <v>293</v>
-      </c>
-      <c r="N8" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3049,13 +2812,13 @@
   <sheetData>
     <row r="1" spans="1:1025">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -3066,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1025">
@@ -3077,13 +2840,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1025">
@@ -3091,13 +2854,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1025">
@@ -3105,13 +2868,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1025">
@@ -3119,13 +2882,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1025">
@@ -3133,13 +2896,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
@@ -3147,13 +2910,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1025">
@@ -3161,13 +2924,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
@@ -3175,13 +2938,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1025">
@@ -3189,10 +2952,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1025">
@@ -3200,13 +2963,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1025">
@@ -3214,13 +2977,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1025">
@@ -3228,10 +2991,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:1025">
@@ -3239,10 +3002,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:1025">
@@ -3250,10 +3013,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1025">
@@ -3261,13 +3024,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1025">
@@ -3275,13 +3038,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1025">
@@ -3289,13 +3052,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:1025">
@@ -3303,13 +3066,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:1025">
@@ -3317,13 +3080,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1025">
@@ -3331,13 +3094,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:1025">
@@ -3345,13 +3108,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1025">
@@ -3359,13 +3122,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:1025">
@@ -3373,10 +3136,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:1025">
@@ -3384,13 +3147,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:1025">
@@ -3398,13 +3161,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:1025">
@@ -3412,13 +3175,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
